--- a/PRESENTISMO 22809.xlsx
+++ b/PRESENTISMO 22809.xlsx
@@ -15,14 +15,14 @@
     <sheet name="#22809" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#22809'!$A$1:$H$977</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#22809'!$A$1:$E$977</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="226">
   <si>
     <t>Nro de comisión</t>
   </si>
@@ -741,7 +741,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -788,12 +788,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -908,10 +902,12 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1127,23 +1123,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB993"/>
+  <dimension ref="A1:AC993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="F1:H1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="24.109375" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" customWidth="1"/>
-    <col min="6" max="28" width="10.6640625" customWidth="1"/>
+    <col min="1" max="2" width="24.109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="15" customWidth="1"/>
+    <col min="6" max="28" width="10.6640625" style="15" customWidth="1"/>
+    <col min="29" max="16384" width="14.44140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>225</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1227,23 +1224,26 @@
       <c r="AB1" s="3">
         <v>44879</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC1" s="3">
+        <v>44881</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
-        <f>(COUNTIF(F2:AB2,"P")/(COUNTA(F2:AB2)))</f>
+        <f>(COUNTIF(F2:AC2,"P")/(COUNTA(F2:AC2)))</f>
         <v>1</v>
       </c>
       <c r="B2" s="7">
         <v>22809</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>16</v>
@@ -1312,23 +1312,26 @@
       <c r="AB2" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC2" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
-        <f>(COUNTIF(F3:AB3,"P")/(COUNTA(F3:AB3)))</f>
+        <f>(COUNTIF(F3:AC3,"P")/(COUNTA(F3:AC3)))</f>
         <v>1</v>
       </c>
       <c r="B3" s="7">
         <v>22809</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>16</v>
@@ -1397,23 +1400,26 @@
       <c r="AB3" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
-        <f>(COUNTIF(F4:AB4,"P")/(COUNTA(F4:AB4)))</f>
+        <f>(COUNTIF(F4:AC4,"P")/(COUNTA(F4:AC4)))</f>
         <v>1</v>
       </c>
       <c r="B4" s="7">
         <v>22809</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>16</v>
@@ -1482,23 +1488,26 @@
       <c r="AB4" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC4" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
-        <f>(COUNTIF(F5:AB5,"P")/(COUNTA(F5:AB5)))</f>
+        <f>(COUNTIF(F5:AC5,"P")/(COUNTA(F5:AC5)))</f>
         <v>1</v>
       </c>
       <c r="B5" s="7">
         <v>22809</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>16</v>
@@ -1567,23 +1576,26 @@
       <c r="AB5" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
-        <f>(COUNTIF(F6:AB6,"P")/(COUNTA(F6:AB6)))</f>
+        <f>(COUNTIF(F6:AC6,"P")/(COUNTA(F6:AC6)))</f>
         <v>1</v>
       </c>
       <c r="B6" s="7">
         <v>22809</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>16</v>
@@ -1652,23 +1664,26 @@
       <c r="AB6" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
-        <f>(COUNTIF(F7:AB7,"P")/(COUNTA(F7:AB7)))</f>
+        <f>(COUNTIF(F7:AC7,"P")/(COUNTA(F7:AC7)))</f>
         <v>1</v>
       </c>
       <c r="B7" s="7">
         <v>22809</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>16</v>
@@ -1737,23 +1752,26 @@
       <c r="AB7" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC7" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
-        <f>(COUNTIF(F8:AB8,"P")/(COUNTA(F8:AB8)))</f>
+        <f>(COUNTIF(F8:AC8,"P")/(COUNTA(F8:AC8)))</f>
         <v>1</v>
       </c>
       <c r="B8" s="7">
         <v>22809</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>16</v>
@@ -1822,10 +1840,13 @@
       <c r="AB8" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC8" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
-        <f>(COUNTIF(F9:AB9,"P")/(COUNTA(F9:AB9)))</f>
+        <f>(COUNTIF(F9:AC9,"P")/(COUNTA(F9:AC9)))</f>
         <v>1</v>
       </c>
       <c r="B9" s="7">
@@ -1907,10 +1928,13 @@
       <c r="AB9" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC9" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
-        <f>(COUNTIF(F10:AB10,"P")/(COUNTA(F10:AB10)))</f>
+        <f>(COUNTIF(F10:AC10,"P")/(COUNTA(F10:AC10)))</f>
         <v>1</v>
       </c>
       <c r="B10" s="7">
@@ -1992,10 +2016,13 @@
       <c r="AB10" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
-        <f>(COUNTIF(F11:AB11,"P")/(COUNTA(F11:AB11)))</f>
+        <f>(COUNTIF(F11:AC11,"P")/(COUNTA(F11:AC11)))</f>
         <v>1</v>
       </c>
       <c r="B11" s="7">
@@ -2077,10 +2104,13 @@
       <c r="AB11" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC11" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
-        <f>(COUNTIF(F12:AB12,"P")/(COUNTA(F12:AB12)))</f>
+        <f>(COUNTIF(F12:AC12,"P")/(COUNTA(F12:AC12)))</f>
         <v>1</v>
       </c>
       <c r="B12" s="7">
@@ -2162,10 +2192,13 @@
       <c r="AB12" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC12" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
-        <f>(COUNTIF(F13:AB13,"P")/(COUNTA(F13:AB13)))</f>
+        <f>(COUNTIF(F13:AC13,"P")/(COUNTA(F13:AC13)))</f>
         <v>1</v>
       </c>
       <c r="B13" s="7">
@@ -2247,10 +2280,13 @@
       <c r="AB13" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC13" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
-        <f>(COUNTIF(F14:AB14,"P")/(COUNTA(F14:AB14)))</f>
+        <f>(COUNTIF(F14:AC14,"P")/(COUNTA(F14:AC14)))</f>
         <v>1</v>
       </c>
       <c r="B14" s="7">
@@ -2332,10 +2368,13 @@
       <c r="AB14" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC14" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
-        <f>(COUNTIF(F15:AB15,"P")/(COUNTA(F15:AB15)))</f>
+        <f>(COUNTIF(F15:AC15,"P")/(COUNTA(F15:AC15)))</f>
         <v>1</v>
       </c>
       <c r="B15" s="7">
@@ -2417,23 +2456,26 @@
       <c r="AB15" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC15" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
-        <f>(COUNTIF(F16:AB16,"P")/(COUNTA(F16:AB16)))</f>
+        <f>(COUNTIF(F16:AC16,"P")/(COUNTA(F16:AC16)))</f>
         <v>1</v>
       </c>
       <c r="B16" s="7">
         <v>22809</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>16</v>
@@ -2502,23 +2544,26 @@
       <c r="AB16" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC16" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
-        <f>(COUNTIF(F17:AB17,"P")/(COUNTA(F17:AB17)))</f>
+        <f>(COUNTIF(F17:AC17,"P")/(COUNTA(F17:AC17)))</f>
         <v>1</v>
       </c>
       <c r="B17" s="7">
         <v>22809</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>16</v>
@@ -2587,23 +2632,26 @@
       <c r="AB17" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC17" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
-        <f>(COUNTIF(F18:AB18,"P")/(COUNTA(F18:AB18)))</f>
-        <v>1</v>
+        <f>(COUNTIF(F18:AC18,"P")/(COUNTA(F18:AC18)))</f>
+        <v>0.95652173913043481</v>
       </c>
       <c r="B18" s="7">
         <v>22809</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>16</v>
@@ -2672,29 +2720,32 @@
       <c r="AB18" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC18" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
-        <f>(COUNTIF(F19:AB19,"P")/(COUNTA(F19:AB19)))</f>
-        <v>0.95454545454545459</v>
+        <f>(COUNTIF(F19:AC19,"P")/(COUNTA(F19:AC19)))</f>
+        <v>0.95652173913043481</v>
       </c>
       <c r="B19" s="7">
         <v>22809</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>15</v>
+      <c r="G19" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>16</v>
@@ -2745,8 +2796,8 @@
       <c r="X19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Y19" s="6" t="s">
-        <v>16</v>
+      <c r="Y19" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="Z19" s="6" t="s">
         <v>16</v>
@@ -2757,23 +2808,26 @@
       <c r="AB19" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC19" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
-        <f>(COUNTIF(F20:AB20,"P")/(COUNTA(F20:AB20)))</f>
-        <v>0.95454545454545459</v>
+        <f>(COUNTIF(F20:AC20,"P")/(COUNTA(F20:AC20)))</f>
+        <v>0.95652173913043481</v>
       </c>
       <c r="B20" s="7">
         <v>22809</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>16</v>
@@ -2842,29 +2896,32 @@
       <c r="AB20" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC20" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
-        <f>(COUNTIF(F21:AB21,"P")/(COUNTA(F21:AB21)))</f>
-        <v>0.95454545454545459</v>
+        <f>(COUNTIF(F21:AC21,"P")/(COUNTA(F21:AC21)))</f>
+        <v>0.95652173913043481</v>
       </c>
       <c r="B21" s="7">
         <v>22809</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>16</v>
+      <c r="G21" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>16</v>
@@ -2899,8 +2956,8 @@
       <c r="R21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S21" s="8" t="s">
-        <v>15</v>
+      <c r="S21" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="T21" s="8"/>
       <c r="U21" s="6" t="s">
@@ -2927,23 +2984,26 @@
       <c r="AB21" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC21" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
-        <f>(COUNTIF(F22:AB22,"P")/(COUNTA(F22:AB22)))</f>
-        <v>0.95454545454545459</v>
+        <f>(COUNTIF(F22:AC22,"P")/(COUNTA(F22:AC22)))</f>
+        <v>0.95652173913043481</v>
       </c>
       <c r="B22" s="7">
         <v>22809</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>16</v>
@@ -2954,38 +3014,38 @@
       <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S22" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S22" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="T22" s="8"/>
       <c r="U22" s="6" t="s">
@@ -3012,23 +3072,26 @@
       <c r="AB22" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC22" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
-        <f>(COUNTIF(F23:AB23,"P")/(COUNTA(F23:AB23)))</f>
-        <v>0.95454545454545459</v>
+        <f>(COUNTIF(F23:AC23,"P")/(COUNTA(F23:AC23)))</f>
+        <v>0.95652173913043481</v>
       </c>
       <c r="B23" s="7">
         <v>22809</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>16</v>
@@ -3039,14 +3102,14 @@
       <c r="H23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>16</v>
+      <c r="I23" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="8" t="s">
-        <v>15</v>
+      <c r="K23" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>16</v>
@@ -3097,23 +3160,26 @@
       <c r="AB23" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC23" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
-        <f>(COUNTIF(F24:AB24,"P")/(COUNTA(F24:AB24)))</f>
-        <v>0.95454545454545459</v>
+        <f>(COUNTIF(F24:AC24,"P")/(COUNTA(F24:AC24)))</f>
+        <v>0.95652173913043481</v>
       </c>
       <c r="B24" s="7">
         <v>22809</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>16</v>
@@ -3130,8 +3196,8 @@
       <c r="J24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="6" t="s">
-        <v>16</v>
+      <c r="K24" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>16</v>
@@ -3158,8 +3224,8 @@
         <v>16</v>
       </c>
       <c r="T24" s="8"/>
-      <c r="U24" s="8" t="s">
-        <v>15</v>
+      <c r="U24" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="V24" s="6" t="s">
         <v>16</v>
@@ -3182,23 +3248,26 @@
       <c r="AB24" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC24" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
-        <f>(COUNTIF(F25:AB25,"P")/(COUNTA(F25:AB25)))</f>
-        <v>0.95454545454545459</v>
+        <f>(COUNTIF(F25:AC25,"P")/(COUNTA(F25:AC25)))</f>
+        <v>0.95652173913043481</v>
       </c>
       <c r="B25" s="7">
         <v>22809</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>16</v>
@@ -3243,8 +3312,8 @@
         <v>16</v>
       </c>
       <c r="T25" s="8"/>
-      <c r="U25" s="6" t="s">
-        <v>16</v>
+      <c r="U25" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="V25" s="6" t="s">
         <v>16</v>
@@ -3252,8 +3321,8 @@
       <c r="W25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X25" s="8" t="s">
-        <v>15</v>
+      <c r="X25" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="Y25" s="6" t="s">
         <v>16</v>
@@ -3267,23 +3336,26 @@
       <c r="AB25" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC25" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
-        <f>(COUNTIF(F26:AB26,"P")/(COUNTA(F26:AB26)))</f>
-        <v>0.95454545454545459</v>
+        <f>(COUNTIF(F26:AC26,"P")/(COUNTA(F26:AC26)))</f>
+        <v>0.95652173913043481</v>
       </c>
       <c r="B26" s="7">
         <v>22809</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>16</v>
@@ -3337,12 +3409,12 @@
       <c r="W26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y26" s="8" t="s">
+      <c r="X26" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="Y26" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Z26" s="6" t="s">
         <v>16</v>
       </c>
@@ -3352,11 +3424,14 @@
       <c r="AB26" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC26" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
-        <f>(COUNTIF(F27:AB27,"P")/(COUNTA(F27:AB27)))</f>
-        <v>0.95454545454545459</v>
+        <f>(COUNTIF(F27:AC27,"P")/(COUNTA(F27:AC27)))</f>
+        <v>0.95652173913043481</v>
       </c>
       <c r="B27" s="7">
         <v>22809</v>
@@ -3437,26 +3512,29 @@
       <c r="AB27" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC27" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
-        <f>(COUNTIF(F28:AB28,"P")/(COUNTA(F28:AB28)))</f>
-        <v>0.95454545454545459</v>
+        <f>(COUNTIF(F28:AC28,"P")/(COUNTA(F28:AC28)))</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="B28" s="7">
         <v>22809</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>16</v>
@@ -3497,7 +3575,9 @@
       <c r="S28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="T28" s="8"/>
+      <c r="T28" s="8" t="s">
+        <v>219</v>
+      </c>
       <c r="U28" s="6" t="s">
         <v>16</v>
       </c>
@@ -3516,119 +3596,123 @@
       <c r="Z28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AA28" s="8" t="s">
-        <v>15</v>
+      <c r="AA28" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="AB28" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC28" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
-        <f>(COUNTIF(F29:AB29,"P")/(COUNTA(F29:AB29)))</f>
+        <f>(COUNTIF(F29:AC29,"P")/(COUNTA(F29:AC29)))</f>
         <v>0.91304347826086951</v>
       </c>
       <c r="B29" s="7">
         <v>22809</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T29" s="8"/>
+      <c r="U29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T29" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="U29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="V29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="W29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="X29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA29" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="AB29" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC29" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
-        <f>(COUNTIF(F30:AB30,"P")/(COUNTA(F30:AB30)))</f>
-        <v>0.90909090909090906</v>
+        <f>(COUNTIF(F30:AC30,"P")/(COUNTA(F30:AC30)))</f>
+        <v>0.91304347826086951</v>
       </c>
       <c r="B30" s="7">
         <v>22809</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>162</v>
+        <v>50</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>16</v>
+        <v>52</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>16</v>
@@ -3639,8 +3723,8 @@
       <c r="I30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J30" s="8" t="s">
-        <v>15</v>
+      <c r="J30" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>16</v>
@@ -3682,8 +3766,8 @@
       <c r="X30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Y30" s="6" t="s">
-        <v>16</v>
+      <c r="Y30" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="Z30" s="6" t="s">
         <v>16</v>
@@ -3691,26 +3775,29 @@
       <c r="AA30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AB30" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
-        <f>(COUNTIF(F31:AB31,"P")/(COUNTA(F31:AB31)))</f>
-        <v>0.90909090909090906</v>
+        <f>(COUNTIF(F31:AC31,"P")/(COUNTA(F31:AC31)))</f>
+        <v>0.91304347826086951</v>
       </c>
       <c r="B31" s="7">
         <v>22809</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>16</v>
@@ -3724,8 +3811,8 @@
       <c r="I31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J31" s="6" t="s">
-        <v>16</v>
+      <c r="J31" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>16</v>
@@ -3748,8 +3835,8 @@
       <c r="Q31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R31" s="8" t="s">
-        <v>15</v>
+      <c r="R31" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="S31" s="6" t="s">
         <v>16</v>
@@ -3779,23 +3866,26 @@
       <c r="AB31" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC31" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
-        <f>(COUNTIF(F32:AB32,"P")/(COUNTA(F32:AB32)))</f>
-        <v>0.90909090909090906</v>
+        <f>(COUNTIF(F32:AC32,"P")/(COUNTA(F32:AC32)))</f>
+        <v>0.91304347826086951</v>
       </c>
       <c r="B32" s="7">
         <v>22809</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>16</v>
@@ -3833,8 +3923,8 @@
       <c r="Q32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R32" s="6" t="s">
-        <v>16</v>
+      <c r="R32" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="S32" s="6" t="s">
         <v>16</v>
@@ -3852,8 +3942,8 @@
       <c r="X32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Y32" s="8" t="s">
-        <v>15</v>
+      <c r="Y32" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="Z32" s="6" t="s">
         <v>16</v>
@@ -3864,23 +3954,26 @@
       <c r="AB32" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC32" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
-        <f>(COUNTIF(F33:AB33,"P")/(COUNTA(F33:AB33)))</f>
-        <v>0.90909090909090906</v>
+        <f>(COUNTIF(F33:AC33,"P")/(COUNTA(F33:AC33)))</f>
+        <v>0.91304347826086951</v>
       </c>
       <c r="B33" s="7">
         <v>22809</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>16</v>
@@ -3949,23 +4042,26 @@
       <c r="AB33" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC33" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
-        <f>(COUNTIF(F34:AB34,"P")/(COUNTA(F34:AB34)))</f>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="B34" s="12">
+        <f>(COUNTIF(F34:AC34,"P")/(COUNTA(F34:AC34)))</f>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="B34" s="7">
         <v>22809</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>224</v>
+      <c r="C34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>16</v>
@@ -4022,11 +4118,11 @@
       <c r="X34" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Y34" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z34" s="8" t="s">
+      <c r="Y34" s="8" t="s">
         <v>15</v>
+      </c>
+      <c r="Z34" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="AA34" s="6" t="s">
         <v>16</v>
@@ -4034,23 +4130,26 @@
       <c r="AB34" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC34" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
-        <f>(COUNTIF(F35:AB35,"P")/(COUNTA(F35:AB35)))</f>
-        <v>0.90909090909090906</v>
+        <f>(COUNTIF(F35:AC35,"P")/(COUNTA(F35:AC35)))</f>
+        <v>0.91304347826086951</v>
       </c>
       <c r="B35" s="7">
         <v>22809</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>16</v>
@@ -4119,23 +4218,26 @@
       <c r="AB35" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC35" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
-        <f>(COUNTIF(F36:AB36,"P")/(COUNTA(F36:AB36)))</f>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="B36" s="7">
+        <f>(COUNTIF(F36:AC36,"P")/(COUNTA(F36:AC36)))</f>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="B36" s="12">
         <v>22809</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>67</v>
+      <c r="C36" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>16</v>
@@ -4176,8 +4278,8 @@
       <c r="R36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S36" s="6" t="s">
-        <v>16</v>
+      <c r="S36" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="T36" s="8"/>
       <c r="U36" s="6" t="s">
@@ -4198,35 +4300,38 @@
       <c r="Z36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AA36" s="8" t="s">
-        <v>15</v>
+      <c r="AA36" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="AB36" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC36" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
-        <f>(COUNTIF(F37:AB37,"P")/(COUNTA(F37:AB37)))</f>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="B37" s="14">
+        <f>(COUNTIF(F37:AC37,"P")/(COUNTA(F37:AC37)))</f>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="B37" s="7">
         <v>22809</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>124</v>
+      <c r="C37" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="6" t="s">
-        <v>16</v>
+      <c r="G37" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>16</v>
@@ -4234,8 +4339,8 @@
       <c r="I37" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J37" s="6" t="s">
-        <v>16</v>
+      <c r="J37" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>16</v>
@@ -4261,8 +4366,8 @@
       <c r="R37" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S37" s="8" t="s">
-        <v>15</v>
+      <c r="S37" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="T37" s="8"/>
       <c r="U37" s="6" t="s">
@@ -4286,68 +4391,71 @@
       <c r="AA37" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AB37" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC37" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
-        <f>(COUNTIF(F38:AB38,"P")/(COUNTA(F38:AB38)))</f>
-        <v>0.90909090909090906</v>
+        <f>(COUNTIF(F38:AC38,"P")/(COUNTA(F38:AC38)))</f>
+        <v>0.91304347826086951</v>
       </c>
       <c r="B38" s="7">
         <v>22809</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R38" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" s="8" t="s">
+      <c r="S38" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S38" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="T38" s="8"/>
       <c r="U38" s="6" t="s">
@@ -4374,23 +4482,26 @@
       <c r="AB38" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC38" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
-        <f>(COUNTIF(F39:AB39,"P")/(COUNTA(F39:AB39)))</f>
-        <v>0.90909090909090906</v>
+        <f>(COUNTIF(F39:AC39,"P")/(COUNTA(F39:AC39)))</f>
+        <v>0.91304347826086951</v>
       </c>
       <c r="B39" s="7">
         <v>22809</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>15</v>
@@ -4398,8 +4509,8 @@
       <c r="G39" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="6" t="s">
-        <v>16</v>
+      <c r="H39" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>16</v>
@@ -4407,8 +4518,8 @@
       <c r="J39" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="8" t="s">
-        <v>15</v>
+      <c r="K39" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>16</v>
@@ -4459,23 +4570,26 @@
       <c r="AB39" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC39" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
-        <f>(COUNTIF(F40:AB40,"P")/(COUNTA(F40:AB40)))</f>
-        <v>0.90909090909090906</v>
+        <f>(COUNTIF(F40:AC40,"P")/(COUNTA(F40:AC40)))</f>
+        <v>0.91304347826086951</v>
       </c>
       <c r="B40" s="7">
         <v>22809</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>16</v>
@@ -4501,8 +4615,8 @@
       <c r="M40" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N40" s="6" t="s">
-        <v>16</v>
+      <c r="N40" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="O40" s="6" t="s">
         <v>16</v>
@@ -4513,11 +4627,11 @@
       <c r="Q40" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R40" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="S40" s="8" t="s">
-        <v>15</v>
+      <c r="R40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S40" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="T40" s="8"/>
       <c r="U40" s="6" t="s">
@@ -4529,8 +4643,8 @@
       <c r="W40" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X40" s="6" t="s">
-        <v>16</v>
+      <c r="X40" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="Y40" s="6" t="s">
         <v>16</v>
@@ -4544,23 +4658,26 @@
       <c r="AB40" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC40" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
-        <f>(COUNTIF(F41:AB41,"P")/(COUNTA(F41:AB41)))</f>
-        <v>0.90909090909090906</v>
+        <f>(COUNTIF(F41:AC41,"P")/(COUNTA(F41:AC41)))</f>
+        <v>0.91304347826086951</v>
       </c>
       <c r="B41" s="7">
         <v>22809</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>15</v>
@@ -4568,41 +4685,41 @@
       <c r="G41" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S41" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S41" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="T41" s="8"/>
       <c r="U41" s="6" t="s">
@@ -4629,23 +4746,26 @@
       <c r="AB41" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC41" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
-        <f>(COUNTIF(F42:AB42,"P")/(COUNTA(F42:AB42)))</f>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="B42" s="7">
+        <f>(COUNTIF(F42:AC42,"P")/(COUNTA(F42:AC42)))</f>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="B42" s="12">
         <v>22809</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>106</v>
+      <c r="C42" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>16</v>
@@ -4671,8 +4791,8 @@
       <c r="M42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N42" s="8" t="s">
-        <v>15</v>
+      <c r="N42" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="O42" s="6" t="s">
         <v>16</v>
@@ -4699,41 +4819,44 @@
       <c r="W42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X42" s="8" t="s">
+      <c r="X42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z42" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Y42" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z42" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="AA42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AB42" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC42" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
-        <f>(COUNTIF(F43:AB43,"P")/(COUNTA(F43:AB43)))</f>
-        <v>0.90909090909090906</v>
+        <f>(COUNTIF(F43:AC43,"P")/(COUNTA(F43:AC43)))</f>
+        <v>0.86956521739130432</v>
       </c>
       <c r="B43" s="7">
         <v>22809</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>16</v>
@@ -4787,35 +4910,38 @@
       <c r="X43" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Y43" s="8" t="s">
+      <c r="Y43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA43" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Z43" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA43" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB43" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC43" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
-        <f>(COUNTIF(F44:AB44,"P")/(COUNTA(F44:AB44)))</f>
-        <v>0.90909090909090906</v>
+        <f>(COUNTIF(F44:AC44,"P")/(COUNTA(F44:AC44)))</f>
+        <v>0.86956521739130432</v>
       </c>
       <c r="B44" s="7">
         <v>22809</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>15</v>
@@ -4832,8 +4958,8 @@
       <c r="J44" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K44" s="6" t="s">
-        <v>16</v>
+      <c r="K44" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="L44" s="6" t="s">
         <v>16</v>
@@ -4856,8 +4982,8 @@
       <c r="R44" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S44" s="8" t="s">
-        <v>15</v>
+      <c r="S44" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="T44" s="8"/>
       <c r="U44" s="6" t="s">
@@ -4884,11 +5010,14 @@
       <c r="AB44" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC44" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
-        <f>(COUNTIF(F45:AB45,"P")/(COUNTA(F45:AB45)))</f>
-        <v>0.90909090909090906</v>
+        <f>(COUNTIF(F45:AC45,"P")/(COUNTA(F45:AC45)))</f>
+        <v>0.86956521739130432</v>
       </c>
       <c r="B45" s="7">
         <v>22809</v>
@@ -4969,11 +5098,14 @@
       <c r="AB45" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC45" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
-        <f>(COUNTIF(F46:AB46,"P")/(COUNTA(F46:AB46)))</f>
-        <v>0.86363636363636365</v>
+        <f>(COUNTIF(F46:AC46,"P")/(COUNTA(F46:AC46)))</f>
+        <v>0.86956521739130432</v>
       </c>
       <c r="B46" s="7">
         <v>22809</v>
@@ -5054,11 +5186,14 @@
       <c r="AB46" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC46" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
-        <f>(COUNTIF(F47:AB47,"P")/(COUNTA(F47:AB47)))</f>
-        <v>0.86363636363636365</v>
+        <f>(COUNTIF(F47:AC47,"P")/(COUNTA(F47:AC47)))</f>
+        <v>0.86956521739130432</v>
       </c>
       <c r="B47" s="7">
         <v>22809</v>
@@ -5139,11 +5274,14 @@
       <c r="AB47" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC47" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
-        <f>(COUNTIF(F48:AB48,"P")/(COUNTA(F48:AB48)))</f>
-        <v>0.86363636363636365</v>
+        <f>(COUNTIF(F48:AC48,"P")/(COUNTA(F48:AC48)))</f>
+        <v>0.86956521739130432</v>
       </c>
       <c r="B48" s="7">
         <v>22809</v>
@@ -5224,11 +5362,14 @@
       <c r="AB48" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC48" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
-        <f>(COUNTIF(F49:AB49,"P")/(COUNTA(F49:AB49)))</f>
-        <v>0.81818181818181823</v>
+        <f>(COUNTIF(F49:AC49,"P")/(COUNTA(F49:AC49)))</f>
+        <v>0.82608695652173914</v>
       </c>
       <c r="B49" s="7">
         <v>22809</v>
@@ -5309,11 +5450,14 @@
       <c r="AB49" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC49" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
-        <f>(COUNTIF(F50:AB50,"P")/(COUNTA(F50:AB50)))</f>
-        <v>0.81818181818181823</v>
+        <f>(COUNTIF(F50:AC50,"P")/(COUNTA(F50:AC50)))</f>
+        <v>0.82608695652173914</v>
       </c>
       <c r="B50" s="7">
         <v>22809</v>
@@ -5394,11 +5538,14 @@
       <c r="AB50" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC50" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
-        <f>(COUNTIF(F51:AB51,"P")/(COUNTA(F51:AB51)))</f>
-        <v>0.81818181818181823</v>
+        <f>(COUNTIF(F51:AC51,"P")/(COUNTA(F51:AC51)))</f>
+        <v>0.82608695652173914</v>
       </c>
       <c r="B51" s="7">
         <v>22809</v>
@@ -5479,11 +5626,14 @@
       <c r="AB51" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC51" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
-        <f>(COUNTIF(F52:AB52,"P")/(COUNTA(F52:AB52)))</f>
-        <v>0.77272727272727271</v>
+        <f>(COUNTIF(F52:AC52,"P")/(COUNTA(F52:AC52)))</f>
+        <v>0.73913043478260865</v>
       </c>
       <c r="B52" s="7">
         <v>22809</v>
@@ -5564,53 +5714,56 @@
       <c r="AB52" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC52" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
-        <f>(COUNTIF(F53:AB53,"P")/(COUNTA(F53:AB53)))</f>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="B53" s="7">
+        <f>(COUNTIF(F53:AC53,"P")/(COUNTA(F53:AC53)))</f>
+        <v>0.73913043478260865</v>
+      </c>
+      <c r="B53" s="12">
         <v>22809</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F53" s="8" t="s">
+      <c r="C53" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L53" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L53" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N53" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O53" s="6" t="s">
-        <v>16</v>
+      <c r="M53" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="P53" s="6" t="s">
         <v>16</v>
@@ -5640,35 +5793,38 @@
       <c r="Y53" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Z53" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA53" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB53" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC53" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
-        <f>(COUNTIF(F54:AB54,"P")/(COUNTA(F54:AB54)))</f>
-        <v>0.72727272727272729</v>
+        <f>(COUNTIF(F54:AC54,"P")/(COUNTA(F54:AC54)))</f>
+        <v>0.69565217391304346</v>
       </c>
       <c r="B54" s="7">
         <v>22809</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>178</v>
+        <v>60</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>16</v>
+        <v>61</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>16</v>
@@ -5703,8 +5859,8 @@
       <c r="Q54" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R54" s="8" t="s">
-        <v>15</v>
+      <c r="R54" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="S54" s="6" t="s">
         <v>16</v>
@@ -5734,23 +5890,26 @@
       <c r="AB54" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC54" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
-        <f>(COUNTIF(F55:AB55,"P")/(COUNTA(F55:AB55)))</f>
-        <v>0.72727272727272729</v>
+        <f>(COUNTIF(F55:AC55,"P")/(COUNTA(F55:AC55)))</f>
+        <v>0.69565217391304346</v>
       </c>
       <c r="B55" s="7">
         <v>22809</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>16</v>
@@ -5788,15 +5947,15 @@
       <c r="Q55" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R55" s="6" t="s">
-        <v>16</v>
+      <c r="R55" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="S55" s="6" t="s">
         <v>16</v>
       </c>
       <c r="T55" s="8"/>
-      <c r="U55" s="8" t="s">
-        <v>15</v>
+      <c r="U55" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="V55" s="6" t="s">
         <v>16</v>
@@ -5819,23 +5978,26 @@
       <c r="AB55" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC55" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13">
-        <f>(COUNTIF(F56:AB56,"P")/(COUNTA(F56:AB56)))</f>
-        <v>0.72727272727272729</v>
+        <f>(COUNTIF(F56:AC56,"P")/(COUNTA(F56:AC56)))</f>
+        <v>0.69565217391304346</v>
       </c>
       <c r="B56" s="7">
         <v>22809</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>16</v>
@@ -5904,23 +6066,26 @@
       <c r="AB56" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC56" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13">
-        <f>(COUNTIF(F57:AB57,"P")/(COUNTA(F57:AB57)))</f>
-        <v>0.72727272727272729</v>
+        <f>(COUNTIF(F57:AC57,"P")/(COUNTA(F57:AC57)))</f>
+        <v>0.69565217391304346</v>
       </c>
       <c r="B57" s="7">
         <v>22809</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>16</v>
@@ -5989,23 +6154,26 @@
       <c r="AB57" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC57" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13">
-        <f>(COUNTIF(F58:AB58,"P")/(COUNTA(F58:AB58)))</f>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="B58" s="14">
+        <f>(COUNTIF(F58:AC58,"P")/(COUNTA(F58:AC58)))</f>
+        <v>0.69565217391304346</v>
+      </c>
+      <c r="B58" s="7">
         <v>22809</v>
       </c>
-      <c r="C58" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>173</v>
+      <c r="C58" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>16</v>
@@ -6025,33 +6193,33 @@
       <c r="K58" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L58" s="8" t="s">
+      <c r="L58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="M58" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N58" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="O58" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P58" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q58" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R58" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S58" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T58" s="8"/>
-      <c r="U58" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="V58" s="6" t="s">
         <v>16</v>
@@ -6065,51 +6233,54 @@
       <c r="Y58" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Z58" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA58" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB58" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z58" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA58" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB58" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC58" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13">
-        <f>(COUNTIF(F59:AB59,"P")/(COUNTA(F59:AB59)))</f>
+        <f>(COUNTIF(F59:AC59,"P")/(COUNTA(F59:AC59)))</f>
         <v>0.69565217391304346</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="12">
         <v>22809</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59" s="8" t="s">
+      <c r="C59" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F59" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I59" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K59" s="8" t="s">
+      <c r="G59" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="H59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="L59" s="6" t="s">
         <v>16</v>
       </c>
@@ -6131,14 +6302,12 @@
       <c r="R59" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S59" s="8" t="s">
+      <c r="S59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="T59" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="U59" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="V59" s="6" t="s">
         <v>16</v>
@@ -6152,20 +6321,23 @@
       <c r="Y59" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Z59" s="8" t="s">
-        <v>15</v>
+      <c r="Z59" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="AA59" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AB59" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC59" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13">
-        <f>(COUNTIF(F60:AB60,"P")/(COUNTA(F60:AB60)))</f>
-        <v>0.68181818181818177</v>
+        <f>(COUNTIF(F60:AC60,"P")/(COUNTA(F60:AC60)))</f>
+        <v>0.69565217391304346</v>
       </c>
       <c r="B60" s="7">
         <v>22809</v>
@@ -6246,23 +6418,26 @@
       <c r="AB60" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC60" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13">
-        <f>(COUNTIF(F61:AB61,"P")/(COUNTA(F61:AB61)))</f>
-        <v>0.68181818181818177</v>
-      </c>
-      <c r="B61" s="7">
+        <f>(COUNTIF(F61:AC61,"P")/(COUNTA(F61:AC61)))</f>
+        <v>0.69565217391304346</v>
+      </c>
+      <c r="B61" s="10">
         <v>22809</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>197</v>
+      <c r="C61" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>16</v>
@@ -6273,24 +6448,24 @@
       <c r="H61" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I61" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>16</v>
+      <c r="I61" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="K61" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L61" s="8" t="s">
+      <c r="L61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N61" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M61" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N61" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="O61" s="6" t="s">
         <v>16</v>
       </c>
@@ -6307,47 +6482,50 @@
         <v>16</v>
       </c>
       <c r="T61" s="8"/>
-      <c r="U61" s="8" t="s">
+      <c r="U61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y61" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="V61" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="W61" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="X61" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y61" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="Z61" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AA61" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB61" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC61" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13">
-        <f>(COUNTIF(F62:AB62,"P")/(COUNTA(F62:AB62)))</f>
-        <v>0.68181818181818177</v>
+        <f>(COUNTIF(F62:AC62,"P")/(COUNTA(F62:AC62)))</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="B62" s="7">
         <v>22809</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>16</v>
@@ -6355,8 +6533,8 @@
       <c r="G62" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H62" s="6" t="s">
-        <v>16</v>
+      <c r="H62" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>16</v>
@@ -6364,8 +6542,8 @@
       <c r="J62" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K62" s="6" t="s">
-        <v>16</v>
+      <c r="K62" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="L62" s="6" t="s">
         <v>16</v>
@@ -6385,15 +6563,17 @@
       <c r="Q62" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R62" s="8" t="s">
+      <c r="R62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S62" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S62" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T62" s="8"/>
-      <c r="U62" s="8" t="s">
-        <v>15</v>
+      <c r="T62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U62" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="V62" s="6" t="s">
         <v>16</v>
@@ -6401,8 +6581,8 @@
       <c r="W62" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X62" s="8" t="s">
-        <v>15</v>
+      <c r="X62" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="Y62" s="8" t="s">
         <v>15</v>
@@ -6416,23 +6596,26 @@
       <c r="AB62" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC62" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13">
-        <f>(COUNTIF(F63:AB63,"P")/(COUNTA(F63:AB63)))</f>
-        <v>0.68181818181818177</v>
-      </c>
-      <c r="B63" s="10">
+        <f>(COUNTIF(F63:AC63,"P")/(COUNTA(F63:AC63)))</f>
+        <v>0.65217391304347827</v>
+      </c>
+      <c r="B63" s="7">
         <v>22809</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>109</v>
+      <c r="C63" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>16</v>
@@ -6443,43 +6626,43 @@
       <c r="H63" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I63" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J63" s="8" t="s">
-        <v>15</v>
+      <c r="I63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="K63" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L63" s="6" t="s">
-        <v>16</v>
+      <c r="L63" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="M63" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N63" s="8" t="s">
+      <c r="N63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O63" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P63" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q63" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R63" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S63" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T63" s="8"/>
-      <c r="U63" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="V63" s="6" t="s">
         <v>16</v>
       </c>
@@ -6489,74 +6672,77 @@
       <c r="X63" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Y63" s="8" t="s">
-        <v>15</v>
+      <c r="Y63" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="Z63" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AA63" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB63" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA63" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB63" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC63" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13">
-        <f>(COUNTIF(F64:AB64,"P")/(COUNTA(F64:AB64)))</f>
-        <v>0.68181818181818177</v>
-      </c>
-      <c r="B64" s="12">
+        <f>(COUNTIF(F64:AC64,"P")/(COUNTA(F64:AC64)))</f>
+        <v>0.65217391304347827</v>
+      </c>
+      <c r="B64" s="7">
         <v>22809</v>
       </c>
-      <c r="C64" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F64" s="8" t="s">
+      <c r="C64" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O64" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P64" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q64" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R64" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I64" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J64" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K64" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L64" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M64" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N64" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O64" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P64" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q64" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R64" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="S64" s="6" t="s">
         <v>16</v>
@@ -6571,26 +6757,29 @@
       <c r="W64" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X64" s="6" t="s">
-        <v>16</v>
+      <c r="X64" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="Y64" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Z64" s="6" t="s">
-        <v>16</v>
+      <c r="Z64" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="AA64" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AB64" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB64" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC64" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13">
-        <f>(COUNTIF(F65:AB65,"P")/(COUNTA(F65:AB65)))</f>
-        <v>0.63636363636363635</v>
+        <f>(COUNTIF(F65:AC65,"P")/(COUNTA(F65:AC65)))</f>
+        <v>0.60869565217391308</v>
       </c>
       <c r="B65" s="7">
         <v>22809</v>
@@ -6671,11 +6860,14 @@
       <c r="AB65" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC65" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="13">
-        <f>(COUNTIF(F66:AB66,"P")/(COUNTA(F66:AB66)))</f>
-        <v>0.59090909090909094</v>
+        <f>(COUNTIF(F66:AC66,"P")/(COUNTA(F66:AC66)))</f>
+        <v>0.56521739130434778</v>
       </c>
       <c r="B66" s="7">
         <v>22809</v>
@@ -6756,11 +6948,14 @@
       <c r="AB66" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="67" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC66" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="13">
-        <f>(COUNTIF(F67:AB67,"P")/(COUNTA(F67:AB67)))</f>
-        <v>0.5</v>
+        <f>(COUNTIF(F67:AC67,"P")/(COUNTA(F67:AC67)))</f>
+        <v>0.47826086956521741</v>
       </c>
       <c r="B67" s="10">
         <v>22809</v>
@@ -6841,11 +7036,14 @@
       <c r="AB67" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="68" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC67" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="13">
-        <f>(COUNTIF(F68:AB68,"P")/(COUNTA(F68:AB68)))</f>
-        <v>0.45454545454545453</v>
+        <f>(COUNTIF(F68:AC68,"P")/(COUNTA(F68:AC68)))</f>
+        <v>0.43478260869565216</v>
       </c>
       <c r="B68" s="11">
         <v>22809</v>
@@ -6926,11 +7124,14 @@
       <c r="AB68" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC68" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="13">
-        <f>(COUNTIF(F69:AB69,"P")/(COUNTA(F69:AB69)))</f>
-        <v>0.40909090909090912</v>
+        <f>(COUNTIF(F69:AC69,"P")/(COUNTA(F69:AC69)))</f>
+        <v>0.39130434782608697</v>
       </c>
       <c r="B69" s="11">
         <v>22809</v>
@@ -7011,11 +7212,14 @@
       <c r="AB69" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="70" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC69" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13">
-        <f>(COUNTIF(F70:AB70,"P")/(COUNTA(F70:AB70)))</f>
-        <v>0.36363636363636365</v>
+        <f>(COUNTIF(F70:AC70,"P")/(COUNTA(F70:AC70)))</f>
+        <v>0.34782608695652173</v>
       </c>
       <c r="B70" s="11">
         <v>22809</v>
@@ -7096,11 +7300,14 @@
       <c r="AB70" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="71" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC70" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13">
-        <f>(COUNTIF(F71:AB71,"P")/(COUNTA(F71:AB71)))</f>
-        <v>0.27272727272727271</v>
+        <f>(COUNTIF(F71:AC71,"P")/(COUNTA(F71:AC71)))</f>
+        <v>0.2608695652173913</v>
       </c>
       <c r="B71" s="11">
         <v>22809</v>
@@ -7181,11 +7388,14 @@
       <c r="AB71" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="72" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC71" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13">
-        <f>(COUNTIF(F72:AB72,"P")/(COUNTA(F72:AB72)))</f>
-        <v>0.27272727272727271</v>
+        <f>(COUNTIF(F72:AC72,"P")/(COUNTA(F72:AC72)))</f>
+        <v>0.2608695652173913</v>
       </c>
       <c r="B72" s="11">
         <v>22809</v>
@@ -7266,8 +7476,11 @@
       <c r="AB72" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="73" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC72" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -7297,7 +7510,7 @@
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
     </row>
-    <row r="74" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -7327,7 +7540,7 @@
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
     </row>
-    <row r="75" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -7357,7 +7570,7 @@
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
     </row>
-    <row r="76" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -7387,7 +7600,7 @@
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
     </row>
-    <row r="77" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -7417,7 +7630,7 @@
       <c r="AA77" s="5"/>
       <c r="AB77" s="5"/>
     </row>
-    <row r="78" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -7447,7 +7660,7 @@
       <c r="AA78" s="5"/>
       <c r="AB78" s="5"/>
     </row>
-    <row r="79" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -7477,7 +7690,7 @@
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
     </row>
-    <row r="80" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -34871,11 +35084,7 @@
     </row>
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:H977">
-    <sortState ref="A2:Z994">
-      <sortCondition ref="G1:G994"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:E977"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/PRESENTISMO 22809.xlsx
+++ b/PRESENTISMO 22809.xlsx
@@ -15,14 +15,14 @@
     <sheet name="#22809" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#22809'!$A$1:$E$977</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#22809'!$A$1:$AF$993</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="226">
   <si>
     <t>Nro de comisión</t>
   </si>
@@ -1120,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE993"/>
+  <dimension ref="A1:AF993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G15" sqref="G14:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1135,7 +1135,7 @@
     <col min="6" max="30" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>225</v>
       </c>
@@ -1229,23 +1229,26 @@
       <c r="AE1" s="3">
         <v>44888</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AF1" s="3">
+        <v>44893</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
-        <f>(COUNTIF(F2:AE2,"P")/(COUNTA(F2:AE2)))</f>
+        <f>(COUNTIF(F2:AF2,"P")/(COUNTA(F2:AF2)))</f>
         <v>1</v>
       </c>
       <c r="B2" s="7">
         <v>22809</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>16</v>
@@ -1321,23 +1324,26 @@
       <c r="AE2" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AF2" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
-        <f>(COUNTIF(F3:AE3,"P")/(COUNTA(F3:AE3)))</f>
+        <f>(COUNTIF(F3:AF3,"P")/(COUNTA(F3:AF3)))</f>
         <v>1</v>
       </c>
       <c r="B3" s="7">
         <v>22809</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>16</v>
@@ -1413,23 +1419,26 @@
       <c r="AE3" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AF3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
-        <f>(COUNTIF(F4:AE4,"P")/(COUNTA(F4:AE4)))</f>
+        <f>(COUNTIF(F4:AF4,"P")/(COUNTA(F4:AF4)))</f>
         <v>1</v>
       </c>
       <c r="B4" s="7">
         <v>22809</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>16</v>
@@ -1505,23 +1514,26 @@
       <c r="AE4" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AF4" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
-        <f>(COUNTIF(F5:AE5,"P")/(COUNTA(F5:AE5)))</f>
+        <f>(COUNTIF(F5:AF5,"P")/(COUNTA(F5:AF5)))</f>
         <v>1</v>
       </c>
       <c r="B5" s="7">
         <v>22809</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>16</v>
@@ -1597,23 +1609,26 @@
       <c r="AE5" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AF5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
-        <f>(COUNTIF(F6:AE6,"P")/(COUNTA(F6:AE6)))</f>
+        <f>(COUNTIF(F6:AF6,"P")/(COUNTA(F6:AF6)))</f>
         <v>1</v>
       </c>
       <c r="B6" s="7">
         <v>22809</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>16</v>
@@ -1689,23 +1704,26 @@
       <c r="AE6" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AF6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
-        <f>(COUNTIF(F7:AE7,"P")/(COUNTA(F7:AE7)))</f>
+        <f>(COUNTIF(F7:AF7,"P")/(COUNTA(F7:AF7)))</f>
         <v>1</v>
       </c>
       <c r="B7" s="7">
         <v>22809</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>16</v>
@@ -1781,23 +1799,26 @@
       <c r="AE7" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AF7" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
-        <f>(COUNTIF(F8:AE8,"P")/(COUNTA(F8:AE8)))</f>
+        <f>(COUNTIF(F8:AF8,"P")/(COUNTA(F8:AF8)))</f>
         <v>1</v>
       </c>
       <c r="B8" s="7">
         <v>22809</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>16</v>
@@ -1873,23 +1894,26 @@
       <c r="AE8" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AF8" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
-        <f>(COUNTIF(F9:AE9,"P")/(COUNTA(F9:AE9)))</f>
+        <f>(COUNTIF(F9:AF9,"P")/(COUNTA(F9:AF9)))</f>
         <v>1</v>
       </c>
       <c r="B9" s="7">
         <v>22809</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>16</v>
@@ -1965,23 +1989,26 @@
       <c r="AE9" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AF9" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
-        <f>(COUNTIF(F10:AE10,"P")/(COUNTA(F10:AE10)))</f>
+        <f>(COUNTIF(F10:AF10,"P")/(COUNTA(F10:AF10)))</f>
         <v>1</v>
       </c>
       <c r="B10" s="7">
         <v>22809</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>16</v>
@@ -2057,23 +2084,26 @@
       <c r="AE10" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AF10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
-        <f>(COUNTIF(F11:AE11,"P")/(COUNTA(F11:AE11)))</f>
+        <f>(COUNTIF(F11:AF11,"P")/(COUNTA(F11:AF11)))</f>
         <v>1</v>
       </c>
       <c r="B11" s="7">
         <v>22809</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>16</v>
@@ -2149,23 +2179,26 @@
       <c r="AE11" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AF11" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
-        <f>(COUNTIF(F12:AE12,"P")/(COUNTA(F12:AE12)))</f>
+        <f>(COUNTIF(F12:AF12,"P")/(COUNTA(F12:AF12)))</f>
         <v>1</v>
       </c>
       <c r="B12" s="7">
         <v>22809</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>16</v>
@@ -2241,23 +2274,26 @@
       <c r="AE12" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AF12" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
-        <f>(COUNTIF(F13:AE13,"P")/(COUNTA(F13:AE13)))</f>
-        <v>1</v>
+        <f>(COUNTIF(F13:AF13,"P")/(COUNTA(F13:AF13)))</f>
+        <v>0.96</v>
       </c>
       <c r="B13" s="7">
         <v>22809</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>16</v>
@@ -2330,14 +2366,17 @@
         <v>16</v>
       </c>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AE13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF13" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
-        <f>(COUNTIF(F14:AE14,"P")/(COUNTA(F14:AE14)))</f>
-        <v>0.95833333333333337</v>
+        <f>(COUNTIF(F14:AF14,"P")/(COUNTA(F14:AF14)))</f>
+        <v>0.96</v>
       </c>
       <c r="B14" s="7">
         <v>22809</v>
@@ -2425,23 +2464,26 @@
       <c r="AE14" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AF14" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
-        <f>(COUNTIF(F15:AE15,"P")/(COUNTA(F15:AE15)))</f>
-        <v>0.95833333333333337</v>
+        <f>(COUNTIF(F15:AF15,"P")/(COUNTA(F15:AF15)))</f>
+        <v>0.96</v>
       </c>
       <c r="B15" s="7">
         <v>22809</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>16</v>
@@ -2498,8 +2540,8 @@
       <c r="X15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Y15" s="8" t="s">
-        <v>15</v>
+      <c r="Y15" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="Z15" s="6" t="s">
         <v>16</v>
@@ -2517,35 +2559,38 @@
       <c r="AE15" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AF15" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
-        <f>(COUNTIF(F16:AE16,"P")/(COUNTA(F16:AE16)))</f>
-        <v>0.95833333333333337</v>
+        <f>(COUNTIF(F16:AF16,"P")/(COUNTA(F16:AF16)))</f>
+        <v>0.96</v>
       </c>
       <c r="B16" s="7">
         <v>22809</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>16</v>
@@ -2609,41 +2654,44 @@
       <c r="AE16" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AF16" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
-        <f>(COUNTIF(F17:AE17,"P")/(COUNTA(F17:AE17)))</f>
-        <v>0.95833333333333337</v>
+        <f>(COUNTIF(F17:AF17,"P")/(COUNTA(F17:AF17)))</f>
+        <v>0.96</v>
       </c>
       <c r="B17" s="7">
         <v>22809</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>16</v>
@@ -2701,23 +2749,26 @@
       <c r="AE17" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AF17" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
-        <f>(COUNTIF(F18:AE18,"P")/(COUNTA(F18:AE18)))</f>
-        <v>0.95833333333333337</v>
+        <f>(COUNTIF(F18:AF18,"P")/(COUNTA(F18:AF18)))</f>
+        <v>0.96</v>
       </c>
       <c r="B18" s="7">
         <v>22809</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>16</v>
@@ -2758,8 +2809,8 @@
       <c r="R18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S18" s="8" t="s">
-        <v>15</v>
+      <c r="S18" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="T18" s="8"/>
       <c r="U18" s="6" t="s">
@@ -2790,26 +2841,29 @@
         <v>16</v>
       </c>
       <c r="AD18" s="8"/>
-      <c r="AE18" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AE18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
-        <f>(COUNTIF(F19:AE19,"P")/(COUNTA(F19:AE19)))</f>
-        <v>0.95833333333333337</v>
+        <f>(COUNTIF(F19:AF19,"P")/(COUNTA(F19:AF19)))</f>
+        <v>0.96</v>
       </c>
       <c r="B19" s="7">
         <v>22809</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>16</v>
@@ -2820,42 +2874,42 @@
       <c r="H19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T19" s="8"/>
-      <c r="U19" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="V19" s="6" t="s">
         <v>16</v>
@@ -2885,23 +2939,26 @@
       <c r="AE19" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF19" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
-        <f>(COUNTIF(F20:AE20,"P")/(COUNTA(F20:AE20)))</f>
-        <v>0.95833333333333337</v>
+        <f>(COUNTIF(F20:AF20,"P")/(COUNTA(F20:AF20)))</f>
+        <v>0.96</v>
       </c>
       <c r="B20" s="7">
         <v>22809</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>16</v>
@@ -2918,32 +2975,32 @@
       <c r="J20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S20" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S20" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="T20" s="8"/>
       <c r="U20" s="6" t="s">
@@ -2977,23 +3034,26 @@
       <c r="AE20" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF20" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
-        <f>(COUNTIF(F21:AE21,"P")/(COUNTA(F21:AE21)))</f>
-        <v>0.95833333333333337</v>
+        <f>(COUNTIF(F21:AF21,"P")/(COUNTA(F21:AF21)))</f>
+        <v>0.96</v>
       </c>
       <c r="B21" s="7">
         <v>22809</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>16</v>
@@ -3038,17 +3098,17 @@
         <v>16</v>
       </c>
       <c r="T21" s="8"/>
-      <c r="U21" s="8" t="s">
+      <c r="U21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="V21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="W21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="X21" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="Y21" s="6" t="s">
         <v>16</v>
@@ -3069,23 +3129,26 @@
       <c r="AE21" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF21" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
-        <f>(COUNTIF(F22:AE22,"P")/(COUNTA(F22:AE22)))</f>
-        <v>0.95833333333333337</v>
+        <f>(COUNTIF(F22:AF22,"P")/(COUNTA(F22:AF22)))</f>
+        <v>0.96</v>
       </c>
       <c r="B22" s="7">
         <v>22809</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>16</v>
@@ -3139,17 +3202,17 @@
       <c r="W22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X22" s="8" t="s">
+      <c r="X22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA22" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="Y22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA22" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="AB22" s="6" t="s">
         <v>16</v>
@@ -3161,23 +3224,26 @@
       <c r="AE22" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF22" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
-        <f>(COUNTIF(F23:AE23,"P")/(COUNTA(F23:AE23)))</f>
-        <v>0.95833333333333337</v>
+        <f>(COUNTIF(F23:AF23,"P")/(COUNTA(F23:AF23)))</f>
+        <v>0.96</v>
       </c>
       <c r="B23" s="7">
         <v>22809</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>16</v>
@@ -3234,14 +3300,14 @@
       <c r="X23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Y23" s="6" t="s">
-        <v>16</v>
+      <c r="Y23" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="Z23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AA23" s="8" t="s">
-        <v>15</v>
+      <c r="AA23" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="AB23" s="6" t="s">
         <v>16</v>
@@ -3253,23 +3319,26 @@
       <c r="AE23" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF23" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
-        <f>(COUNTIF(F24:AE24,"P")/(COUNTA(F24:AE24)))</f>
-        <v>0.95833333333333337</v>
+        <f>(COUNTIF(F24:AF24,"P")/(COUNTA(F24:AF24)))</f>
+        <v>0.96</v>
       </c>
       <c r="B24" s="7">
         <v>22809</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>16</v>
@@ -3345,26 +3414,29 @@
       <c r="AE24" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF24" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
-        <f>(COUNTIF(F25:AE25,"P")/(COUNTA(F25:AE25)))</f>
-        <v>0.95833333333333337</v>
+        <f>(COUNTIF(F25:AF25,"P")/(COUNTA(F25:AF25)))</f>
+        <v>0.92</v>
       </c>
       <c r="B25" s="7">
         <v>22809</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>16</v>
+        <v>118</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>16</v>
@@ -3402,8 +3474,8 @@
       <c r="R25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S25" s="6" t="s">
-        <v>16</v>
+      <c r="S25" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="T25" s="8"/>
       <c r="U25" s="6" t="s">
@@ -3434,26 +3506,29 @@
         <v>16</v>
       </c>
       <c r="AD25" s="8"/>
-      <c r="AE25" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF25" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
-        <f>(COUNTIF(F26:AE26,"P")/(COUNTA(F26:AE26)))</f>
-        <v>0.95833333333333337</v>
+        <f>(COUNTIF(F26:AF26,"P")/(COUNTA(F26:AF26)))</f>
+        <v>0.92</v>
       </c>
       <c r="B26" s="7">
         <v>22809</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>16</v>
@@ -3510,8 +3585,8 @@
       <c r="X26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Y26" s="6" t="s">
-        <v>16</v>
+      <c r="Y26" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="Z26" s="6" t="s">
         <v>16</v>
@@ -3519,33 +3594,36 @@
       <c r="AA26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AB26" s="6" t="s">
-        <v>16</v>
+      <c r="AB26" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="AC26" s="6" t="s">
         <v>16</v>
       </c>
       <c r="AD26" s="8"/>
-      <c r="AE26" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF26" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
-        <f>(COUNTIF(F27:AE27,"P")/(COUNTA(F27:AE27)))</f>
-        <v>0.95833333333333337</v>
+        <f>(COUNTIF(F27:AF27,"P")/(COUNTA(F27:AF27)))</f>
+        <v>0.92</v>
       </c>
       <c r="B27" s="7">
         <v>22809</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>16</v>
@@ -3621,23 +3699,26 @@
       <c r="AE27" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF27" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
-        <f>(COUNTIF(F28:AE28,"P")/(COUNTA(F28:AE28)))</f>
-        <v>0.91666666666666663</v>
+        <f>(COUNTIF(F28:AF28,"P")/(COUNTA(F28:AF28)))</f>
+        <v>0.92</v>
       </c>
       <c r="B28" s="7">
         <v>22809</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>48</v>
+        <v>175</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>16</v>
@@ -3675,8 +3756,8 @@
       <c r="Q28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R28" s="6" t="s">
-        <v>16</v>
+      <c r="R28" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="S28" s="6" t="s">
         <v>16</v>
@@ -3700,36 +3781,39 @@
       <c r="Z28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AA28" s="8" t="s">
+      <c r="AA28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AB28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC28" s="8" t="s">
-        <v>15</v>
+      <c r="AC28" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="AD28" s="8"/>
       <c r="AE28" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF28" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
-        <f>(COUNTIF(F29:AE29,"P")/(COUNTA(F29:AE29)))</f>
-        <v>0.91666666666666663</v>
+        <f>(COUNTIF(F29:AF29,"P")/(COUNTA(F29:AF29)))</f>
+        <v>0.92</v>
       </c>
       <c r="B29" s="7">
         <v>22809</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>16</v>
@@ -3770,8 +3854,8 @@
       <c r="R29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S29" s="6" t="s">
-        <v>16</v>
+      <c r="S29" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="T29" s="8"/>
       <c r="U29" s="6" t="s">
@@ -3795,8 +3879,8 @@
       <c r="AA29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AB29" s="8" t="s">
-        <v>15</v>
+      <c r="AB29" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="AC29" s="6" t="s">
         <v>16</v>
@@ -3805,23 +3889,26 @@
       <c r="AE29" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF29" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
-        <f>(COUNTIF(F30:AE30,"P")/(COUNTA(F30:AE30)))</f>
-        <v>0.91666666666666663</v>
+        <f>(COUNTIF(F30:AF30,"P")/(COUNTA(F30:AF30)))</f>
+        <v>0.92</v>
       </c>
       <c r="B30" s="7">
         <v>22809</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>16</v>
@@ -3897,23 +3984,26 @@
       <c r="AE30" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF30" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
-        <f>(COUNTIF(F31:AE31,"P")/(COUNTA(F31:AE31)))</f>
-        <v>0.91666666666666663</v>
+        <f>(COUNTIF(F31:AF31,"P")/(COUNTA(F31:AF31)))</f>
+        <v>0.92</v>
       </c>
       <c r="B31" s="7">
         <v>22809</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>16</v>
@@ -3939,8 +4029,8 @@
       <c r="M31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N31" s="6" t="s">
-        <v>16</v>
+      <c r="N31" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="O31" s="6" t="s">
         <v>16</v>
@@ -3967,20 +4057,20 @@
       <c r="W31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y31" s="8" t="s">
+      <c r="X31" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="Y31" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Z31" s="6" t="s">
         <v>16</v>
       </c>
       <c r="AA31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AB31" s="8" t="s">
-        <v>15</v>
+      <c r="AB31" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="AC31" s="6" t="s">
         <v>16</v>
@@ -3989,29 +4079,32 @@
       <c r="AE31" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF31" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
-        <f>(COUNTIF(F32:AE32,"P")/(COUNTA(F32:AE32)))</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="B32" s="12">
+        <f>(COUNTIF(F32:AF32,"P")/(COUNTA(F32:AF32)))</f>
+        <v>0.92</v>
+      </c>
+      <c r="B32" s="7">
         <v>22809</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>124</v>
+      <c r="C32" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>16</v>
+      <c r="G32" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>16</v>
@@ -4019,8 +4112,8 @@
       <c r="I32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J32" s="6" t="s">
-        <v>16</v>
+      <c r="J32" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>16</v>
@@ -4046,8 +4139,8 @@
       <c r="R32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S32" s="8" t="s">
-        <v>15</v>
+      <c r="S32" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="T32" s="8"/>
       <c r="U32" s="6" t="s">
@@ -4071,8 +4164,8 @@
       <c r="AA32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AB32" s="8" t="s">
-        <v>15</v>
+      <c r="AB32" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>16</v>
@@ -4081,29 +4174,32 @@
       <c r="AE32" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF32" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
-        <f>(COUNTIF(F33:AE33,"P")/(COUNTA(F33:AE33)))</f>
-        <v>0.91666666666666663</v>
+        <f>(COUNTIF(F33:AF33,"P")/(COUNTA(F33:AF33)))</f>
+        <v>0.92</v>
       </c>
       <c r="B33" s="7">
         <v>22809</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>15</v>
+      <c r="G33" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>16</v>
@@ -4111,8 +4207,8 @@
       <c r="I33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J33" s="8" t="s">
-        <v>15</v>
+      <c r="J33" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>16</v>
@@ -4160,36 +4256,39 @@
       <c r="Z33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AA33" s="6" t="s">
-        <v>16</v>
+      <c r="AA33" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="AB33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AC33" s="6" t="s">
-        <v>16</v>
+      <c r="AC33" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="AD33" s="8"/>
       <c r="AE33" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF33" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
-        <f>(COUNTIF(F34:AE34,"P")/(COUNTA(F34:AE34)))</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="B34" s="7">
+        <f>(COUNTIF(F34:AF34,"P")/(COUNTA(F34:AF34)))</f>
+        <v>0.92</v>
+      </c>
+      <c r="B34" s="12">
         <v>22809</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>99</v>
+      <c r="C34" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>16</v>
@@ -4227,8 +4326,8 @@
       <c r="Q34" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R34" s="8" t="s">
-        <v>15</v>
+      <c r="R34" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="S34" s="8" t="s">
         <v>15</v>
@@ -4255,8 +4354,8 @@
       <c r="AA34" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AB34" s="6" t="s">
-        <v>16</v>
+      <c r="AB34" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="AC34" s="6" t="s">
         <v>16</v>
@@ -4265,29 +4364,32 @@
       <c r="AE34" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF34" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
-        <f>(COUNTIF(F35:AE35,"P")/(COUNTA(F35:AE35)))</f>
-        <v>0.91666666666666663</v>
+        <f>(COUNTIF(F35:AF35,"P")/(COUNTA(F35:AF35)))</f>
+        <v>0.92</v>
       </c>
       <c r="B35" s="7">
         <v>22809</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>16</v>
+      <c r="G35" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>16</v>
@@ -4307,8 +4409,8 @@
       <c r="M35" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N35" s="8" t="s">
-        <v>15</v>
+      <c r="N35" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="O35" s="6" t="s">
         <v>16</v>
@@ -4335,8 +4437,8 @@
       <c r="W35" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X35" s="8" t="s">
-        <v>15</v>
+      <c r="X35" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="Y35" s="6" t="s">
         <v>16</v>
@@ -4357,30 +4459,33 @@
       <c r="AE35" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF35" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
-        <f>(COUNTIF(F36:AE36,"P")/(COUNTA(F36:AE36)))</f>
-        <v>0.91666666666666663</v>
+        <f>(COUNTIF(F36:AF36,"P")/(COUNTA(F36:AF36)))</f>
+        <v>0.92</v>
       </c>
       <c r="B36" s="7">
         <v>22809</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F36" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="H36" s="6" t="s">
         <v>16</v>
       </c>
@@ -4414,8 +4519,8 @@
       <c r="R36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S36" s="8" t="s">
-        <v>15</v>
+      <c r="S36" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="T36" s="8"/>
       <c r="U36" s="6" t="s">
@@ -4449,11 +4554,14 @@
       <c r="AE36" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF36" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
-        <f>(COUNTIF(F37:AE37,"P")/(COUNTA(F37:AE37)))</f>
-        <v>0.875</v>
+        <f>(COUNTIF(F37:AF37,"P")/(COUNTA(F37:AF37)))</f>
+        <v>0.88</v>
       </c>
       <c r="B37" s="7">
         <v>22809</v>
@@ -4541,26 +4649,29 @@
       <c r="AE37" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF37" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
-        <f>(COUNTIF(F38:AE38,"P")/(COUNTA(F38:AE38)))</f>
-        <v>0.875</v>
+        <f>(COUNTIF(F38:AF38,"P")/(COUNTA(F38:AF38)))</f>
+        <v>0.88</v>
       </c>
       <c r="B38" s="7">
         <v>22809</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>16</v>
+        <v>52</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>16</v>
@@ -4598,8 +4709,8 @@
       <c r="R38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S38" s="8" t="s">
-        <v>15</v>
+      <c r="S38" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="T38" s="8"/>
       <c r="U38" s="6" t="s">
@@ -4614,48 +4725,51 @@
       <c r="X38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Y38" s="6" t="s">
-        <v>16</v>
+      <c r="Y38" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="Z38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AA38" s="8" t="s">
+      <c r="AA38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AB38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC38" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD38" s="8"/>
-      <c r="AE38" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF38" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
-        <f>(COUNTIF(F39:AE39,"P")/(COUNTA(F39:AE39)))</f>
-        <v>0.875</v>
+        <f>(COUNTIF(F39:AF39,"P")/(COUNTA(F39:AF39)))</f>
+        <v>0.88</v>
       </c>
       <c r="B39" s="7">
         <v>22809</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>16</v>
@@ -4669,8 +4783,8 @@
       <c r="K39" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L39" s="8" t="s">
-        <v>15</v>
+      <c r="L39" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="M39" s="6" t="s">
         <v>16</v>
@@ -4703,8 +4817,8 @@
       <c r="W39" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X39" s="6" t="s">
-        <v>16</v>
+      <c r="X39" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="Y39" s="6" t="s">
         <v>16</v>
@@ -4725,38 +4839,41 @@
       <c r="AE39" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF39" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
-        <f>(COUNTIF(F40:AE40,"P")/(COUNTA(F40:AE40)))</f>
-        <v>0.875</v>
+        <f>(COUNTIF(F40:AF40,"P")/(COUNTA(F40:AF40)))</f>
+        <v>0.88</v>
       </c>
       <c r="B40" s="7">
         <v>22809</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F40" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="K40" s="6" t="s">
         <v>16</v>
@@ -4795,87 +4912,90 @@
       <c r="W40" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X40" s="8" t="s">
+      <c r="X40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Y40" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z40" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA40" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB40" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="AC40" s="6" t="s">
         <v>16</v>
       </c>
       <c r="AD40" s="8"/>
-      <c r="AE40" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF40" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
-        <f>(COUNTIF(F41:AE41,"P")/(COUNTA(F41:AE41)))</f>
-        <v>0.875</v>
+        <f>(COUNTIF(F41:AF41,"P")/(COUNTA(F41:AF41)))</f>
+        <v>0.88</v>
       </c>
       <c r="B41" s="7">
         <v>22809</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S41" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S41" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="T41" s="8"/>
       <c r="U41" s="6" t="s">
@@ -4890,48 +5010,51 @@
       <c r="X41" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Y41" s="8" t="s">
+      <c r="Y41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA41" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Z41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA41" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="AB41" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AC41" s="6" t="s">
-        <v>16</v>
+      <c r="AC41" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="AD41" s="8"/>
-      <c r="AE41" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF41" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
-        <f>(COUNTIF(F42:AE42,"P")/(COUNTA(F42:AE42)))</f>
-        <v>0.875</v>
+        <f>(COUNTIF(F42:AF42,"P")/(COUNTA(F42:AF42)))</f>
+        <v>0.88</v>
       </c>
       <c r="B42" s="7">
         <v>22809</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>16</v>
+        <v>102</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>16</v>
@@ -4939,14 +5062,14 @@
       <c r="I42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J42" s="8" t="s">
+      <c r="J42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="M42" s="6" t="s">
         <v>16</v>
@@ -4991,33 +5114,36 @@
       <c r="AA42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AB42" s="8" t="s">
-        <v>15</v>
+      <c r="AB42" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="AC42" s="6" t="s">
         <v>16</v>
       </c>
       <c r="AD42" s="8"/>
-      <c r="AE42" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF42" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
-        <f>(COUNTIF(F43:AE43,"P")/(COUNTA(F43:AE43)))</f>
-        <v>0.875</v>
+        <f>(COUNTIF(F43:AF43,"P")/(COUNTA(F43:AF43)))</f>
+        <v>0.84</v>
       </c>
       <c r="B43" s="7">
         <v>22809</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>16</v>
@@ -5025,8 +5151,8 @@
       <c r="G43" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H43" s="6" t="s">
-        <v>16</v>
+      <c r="H43" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>16</v>
@@ -5040,8 +5166,8 @@
       <c r="L43" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M43" s="6" t="s">
-        <v>16</v>
+      <c r="M43" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="N43" s="6" t="s">
         <v>16</v>
@@ -5058,8 +5184,8 @@
       <c r="R43" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S43" s="6" t="s">
-        <v>16</v>
+      <c r="S43" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="T43" s="8"/>
       <c r="U43" s="6" t="s">
@@ -5074,30 +5200,33 @@
       <c r="X43" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Y43" s="6" t="s">
-        <v>16</v>
+      <c r="Y43" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="Z43" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AA43" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB43" s="8" t="s">
-        <v>15</v>
+      <c r="AA43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB43" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="AC43" s="6" t="s">
         <v>16</v>
       </c>
       <c r="AD43" s="8"/>
-      <c r="AE43" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF43" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
-        <f>(COUNTIF(F44:AE44,"P")/(COUNTA(F44:AE44)))</f>
-        <v>0.875</v>
+        <f>(COUNTIF(F44:AF44,"P")/(COUNTA(F44:AF44)))</f>
+        <v>0.84</v>
       </c>
       <c r="B44" s="7">
         <v>22809</v>
@@ -5185,119 +5314,121 @@
       <c r="AE44" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF44" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
-        <f>(COUNTIF(F45:AE45,"P")/(COUNTA(F45:AE45)))</f>
-        <v>0.84615384615384615</v>
+        <f>(COUNTIF(F45:AF45,"P")/(COUNTA(F45:AF45)))</f>
+        <v>0.84</v>
       </c>
       <c r="B45" s="7">
         <v>22809</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T45" s="8"/>
+      <c r="U45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA45" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T45" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="U45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="V45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="W45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="X45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB45" s="6" t="s">
-        <v>16</v>
+      <c r="AB45" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AD45" s="8" t="s">
-        <v>219</v>
-      </c>
+      <c r="AD45" s="8"/>
       <c r="AE45" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF45" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
-        <f>(COUNTIF(F46:AE46,"P")/(COUNTA(F46:AE46)))</f>
-        <v>0.83333333333333337</v>
+        <f>(COUNTIF(F46:AF46,"P")/(COUNTA(F46:AF46)))</f>
+        <v>0.84</v>
       </c>
       <c r="B46" s="7">
         <v>22809</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>16</v>
@@ -5305,41 +5436,41 @@
       <c r="G46" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R46" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S46" s="8" t="s">
-        <v>15</v>
+      <c r="S46" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="T46" s="8"/>
       <c r="U46" s="6" t="s">
@@ -5351,17 +5482,17 @@
       <c r="W46" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y46" s="8" t="s">
+      <c r="X46" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Z46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA46" s="6" t="s">
-        <v>16</v>
+      <c r="Y46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z46" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA46" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="AB46" s="6" t="s">
         <v>16</v>
@@ -5373,26 +5504,29 @@
       <c r="AE46" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF46" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
-        <f>(COUNTIF(F47:AE47,"P")/(COUNTA(F47:AE47)))</f>
-        <v>0.83333333333333337</v>
+        <f>(COUNTIF(F47:AF47,"P")/(COUNTA(F47:AF47)))</f>
+        <v>0.81481481481481477</v>
       </c>
       <c r="B47" s="7">
         <v>22809</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>16</v>
@@ -5427,49 +5561,56 @@
       <c r="Q47" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R47" s="8" t="s">
+      <c r="R47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T47" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="U47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD47" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE47" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S47" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T47" s="8"/>
-      <c r="U47" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="V47" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="W47" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="X47" s="8" t="s">
+      <c r="AF47" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Y47" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z47" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA47" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB47" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC47" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD47" s="8"/>
-      <c r="AE47" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
-        <f>(COUNTIF(F48:AE48,"P")/(COUNTA(F48:AE48)))</f>
-        <v>0.83333333333333337</v>
+        <f>(COUNTIF(F48:AF48,"P")/(COUNTA(F48:AF48)))</f>
+        <v>0.8</v>
       </c>
       <c r="B48" s="12">
         <v>22809</v>
@@ -5557,11 +5698,14 @@
       <c r="AE48" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF48" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
-        <f>(COUNTIF(F49:AE49,"P")/(COUNTA(F49:AE49)))</f>
-        <v>0.83333333333333337</v>
+        <f>(COUNTIF(F49:AF49,"P")/(COUNTA(F49:AF49)))</f>
+        <v>0.8</v>
       </c>
       <c r="B49" s="7">
         <v>22809</v>
@@ -5649,11 +5793,14 @@
       <c r="AE49" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF49" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
-        <f>(COUNTIF(F50:AE50,"P")/(COUNTA(F50:AE50)))</f>
-        <v>0.83333333333333337</v>
+        <f>(COUNTIF(F50:AF50,"P")/(COUNTA(F50:AF50)))</f>
+        <v>0.8</v>
       </c>
       <c r="B50" s="7">
         <v>22809</v>
@@ -5741,23 +5888,26 @@
       <c r="AE50" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF50" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
-        <f>(COUNTIF(F51:AE51,"P")/(COUNTA(F51:AE51)))</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="B51" s="7">
+        <f>(COUNTIF(F51:AF51,"P")/(COUNTA(F51:AF51)))</f>
+        <v>0.76</v>
+      </c>
+      <c r="B51" s="12">
         <v>22809</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>155</v>
+      <c r="C51" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>16</v>
@@ -5777,17 +5927,17 @@
       <c r="K51" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L51" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N51" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O51" s="6" t="s">
-        <v>16</v>
+      <c r="L51" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="P51" s="6" t="s">
         <v>16</v>
@@ -5820,36 +5970,39 @@
       <c r="Z51" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AA51" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB51" s="8" t="s">
-        <v>15</v>
+      <c r="AA51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB51" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="AC51" s="6" t="s">
         <v>16</v>
       </c>
       <c r="AD51" s="8"/>
-      <c r="AE51" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF51" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
-        <f>(COUNTIF(F52:AE52,"P")/(COUNTA(F52:AE52)))</f>
-        <v>0.75</v>
-      </c>
-      <c r="B52" s="12">
+        <f>(COUNTIF(F52:AF52,"P")/(COUNTA(F52:AF52)))</f>
+        <v>0.76</v>
+      </c>
+      <c r="B52" s="7">
         <v>22809</v>
       </c>
-      <c r="C52" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>173</v>
+      <c r="C52" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>16</v>
@@ -5869,17 +6022,17 @@
       <c r="K52" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L52" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M52" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N52" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="O52" s="8" t="s">
-        <v>15</v>
+      <c r="L52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O52" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="P52" s="6" t="s">
         <v>16</v>
@@ -5912,39 +6065,42 @@
       <c r="Z52" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AA52" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB52" s="6" t="s">
-        <v>16</v>
+      <c r="AA52" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB52" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="AC52" s="6" t="s">
         <v>16</v>
       </c>
       <c r="AD52" s="8"/>
-      <c r="AE52" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE52" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF52" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
-        <f>(COUNTIF(F53:AE53,"P")/(COUNTA(F53:AE53)))</f>
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="B53" s="10">
+        <f>(COUNTIF(F53:AF53,"P")/(COUNTA(F53:AF53)))</f>
+        <v>0.68</v>
+      </c>
+      <c r="B53" s="12">
         <v>22809</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>16</v>
+      <c r="C53" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>15</v>
@@ -5958,36 +6114,36 @@
       <c r="J53" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K53" s="8" t="s">
+      <c r="K53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="L53" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N53" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="O53" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P53" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q53" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R53" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S53" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T53" s="8"/>
-      <c r="U53" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="V53" s="6" t="s">
         <v>16</v>
@@ -6001,12 +6157,12 @@
       <c r="Y53" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Z53" s="8" t="s">
+      <c r="Z53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA53" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AA53" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="AB53" s="6" t="s">
         <v>16</v>
       </c>
@@ -6014,32 +6170,35 @@
         <v>16</v>
       </c>
       <c r="AD53" s="8"/>
-      <c r="AE53" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE53" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF53" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
-        <f>(COUNTIF(F54:AE54,"P")/(COUNTA(F54:AE54)))</f>
-        <v>0.70833333333333337</v>
+        <f>(COUNTIF(F54:AF54,"P")/(COUNTA(F54:AF54)))</f>
+        <v>0.68</v>
       </c>
       <c r="B54" s="7">
         <v>22809</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="6" t="s">
-        <v>16</v>
+      <c r="G54" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>16</v>
@@ -6053,79 +6212,82 @@
       <c r="K54" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L54" s="8" t="s">
+      <c r="L54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S54" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M54" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N54" s="8" t="s">
+      <c r="T54" s="8"/>
+      <c r="U54" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O54" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P54" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q54" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R54" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S54" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T54" s="8"/>
-      <c r="U54" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="V54" s="6" t="s">
         <v>16</v>
       </c>
       <c r="W54" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X54" s="8" t="s">
-        <v>15</v>
+      <c r="X54" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="Y54" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Z54" s="6" t="s">
-        <v>16</v>
+      <c r="Z54" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="AA54" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AB54" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC54" s="8" t="s">
+      <c r="AB54" s="8" t="s">
         <v>15</v>
+      </c>
+      <c r="AC54" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="AD54" s="8"/>
       <c r="AE54" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="55" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF54" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
-        <f>(COUNTIF(F55:AE55,"P")/(COUNTA(F55:AE55)))</f>
-        <v>0.66666666666666663</v>
+        <f>(COUNTIF(F55:AF55,"P")/(COUNTA(F55:AF55)))</f>
+        <v>0.68</v>
       </c>
       <c r="B55" s="7">
         <v>22809</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>15</v>
@@ -6145,14 +6307,14 @@
       <c r="K55" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L55" s="6" t="s">
-        <v>16</v>
+      <c r="L55" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="M55" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N55" s="6" t="s">
-        <v>16</v>
+      <c r="N55" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="O55" s="6" t="s">
         <v>16</v>
@@ -6185,14 +6347,14 @@
       <c r="Y55" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Z55" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA55" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB55" s="8" t="s">
-        <v>15</v>
+      <c r="Z55" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA55" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB55" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="AC55" s="8" t="s">
         <v>15</v>
@@ -6201,41 +6363,44 @@
       <c r="AE55" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="56" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF55" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13">
-        <f>(COUNTIF(F56:AE56,"P")/(COUNTA(F56:AE56)))</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="B56" s="7">
+        <f>(COUNTIF(F56:AF56,"P")/(COUNTA(F56:AF56)))</f>
+        <v>0.68</v>
+      </c>
+      <c r="B56" s="10">
         <v>22809</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>179</v>
+      <c r="C56" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G56" s="6" t="s">
-        <v>16</v>
+      <c r="G56" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I56" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>16</v>
+      <c r="I56" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="L56" s="6" t="s">
         <v>16</v>
@@ -6243,8 +6408,8 @@
       <c r="M56" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N56" s="6" t="s">
-        <v>16</v>
+      <c r="N56" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="O56" s="6" t="s">
         <v>16</v>
@@ -6255,8 +6420,8 @@
       <c r="Q56" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R56" s="8" t="s">
-        <v>15</v>
+      <c r="R56" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="S56" s="6" t="s">
         <v>16</v>
@@ -6271,8 +6436,8 @@
       <c r="W56" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X56" s="8" t="s">
-        <v>15</v>
+      <c r="X56" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="Y56" s="8" t="s">
         <v>15</v>
@@ -6280,36 +6445,39 @@
       <c r="Z56" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AA56" s="8" t="s">
+      <c r="AA56" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB56" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC56" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD56" s="8"/>
+      <c r="AE56" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF56" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AB56" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC56" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD56" s="8"/>
-      <c r="AE56" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13">
-        <f>(COUNTIF(F57:AE57,"P")/(COUNTA(F57:AE57)))</f>
-        <v>0.66666666666666663</v>
+        <f>(COUNTIF(F57:AF57,"P")/(COUNTA(F57:AF57)))</f>
+        <v>0.64</v>
       </c>
       <c r="B57" s="7">
         <v>22809</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>16</v>
@@ -6347,15 +6515,15 @@
       <c r="Q57" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R57" s="6" t="s">
-        <v>16</v>
+      <c r="R57" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="S57" s="6" t="s">
         <v>16</v>
       </c>
       <c r="T57" s="8"/>
-      <c r="U57" s="8" t="s">
-        <v>15</v>
+      <c r="U57" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="V57" s="6" t="s">
         <v>16</v>
@@ -6385,23 +6553,26 @@
       <c r="AE57" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="58" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF57" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13">
-        <f>(COUNTIF(F58:AE58,"P")/(COUNTA(F58:AE58)))</f>
-        <v>0.66666666666666663</v>
+        <f>(COUNTIF(F58:AF58,"P")/(COUNTA(F58:AF58)))</f>
+        <v>0.64</v>
       </c>
       <c r="B58" s="7">
         <v>22809</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>16</v>
@@ -6477,26 +6648,29 @@
       <c r="AE58" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="59" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF58" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13">
-        <f>(COUNTIF(F59:AE59,"P")/(COUNTA(F59:AE59)))</f>
-        <v>0.66666666666666663</v>
+        <f>(COUNTIF(F59:AF59,"P")/(COUNTA(F59:AF59)))</f>
+        <v>0.64</v>
       </c>
       <c r="B59" s="7">
         <v>22809</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>203</v>
+        <v>59</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>204</v>
+        <v>60</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>16</v>
+        <v>61</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>16</v>
@@ -6538,8 +6712,8 @@
         <v>16</v>
       </c>
       <c r="T59" s="8"/>
-      <c r="U59" s="8" t="s">
-        <v>15</v>
+      <c r="U59" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="V59" s="6" t="s">
         <v>16</v>
@@ -6569,26 +6743,29 @@
       <c r="AE59" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="60" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF59" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13">
-        <f>(COUNTIF(F60:AE60,"P")/(COUNTA(F60:AE60)))</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="B60" s="12">
+        <f>(COUNTIF(F60:AF60,"P")/(COUNTA(F60:AF60)))</f>
+        <v>0.64</v>
+      </c>
+      <c r="B60" s="7">
         <v>22809</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>15</v>
+      <c r="C60" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>15</v>
@@ -6596,17 +6773,17 @@
       <c r="H60" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I60" s="8" t="s">
+      <c r="I60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J60" s="8" t="s">
+      <c r="L60" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L60" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="M60" s="6" t="s">
         <v>16</v>
@@ -6642,48 +6819,51 @@
       <c r="X60" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Y60" s="8" t="s">
+      <c r="Y60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z60" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="Z60" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="AA60" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AB60" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC60" s="6" t="s">
-        <v>16</v>
+      <c r="AB60" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC60" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="AD60" s="8"/>
       <c r="AE60" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="61" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF60" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13">
-        <f>(COUNTIF(F61:AE61,"P")/(COUNTA(F61:AE61)))</f>
-        <v>0.66666666666666663</v>
+        <f>(COUNTIF(F61:AF61,"P")/(COUNTA(F61:AF61)))</f>
+        <v>0.64</v>
       </c>
       <c r="B61" s="7">
         <v>22809</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>15</v>
+        <v>194</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>16</v>
@@ -6718,8 +6898,8 @@
       <c r="R61" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S61" s="8" t="s">
-        <v>15</v>
+      <c r="S61" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="T61" s="8"/>
       <c r="U61" s="8" t="s">
@@ -6731,8 +6911,8 @@
       <c r="W61" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X61" s="6" t="s">
-        <v>16</v>
+      <c r="X61" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="Y61" s="8" t="s">
         <v>15</v>
@@ -6740,36 +6920,39 @@
       <c r="Z61" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AA61" s="6" t="s">
-        <v>16</v>
+      <c r="AA61" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="AB61" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AC61" s="6" t="s">
-        <v>16</v>
+      <c r="AC61" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="AD61" s="8"/>
       <c r="AE61" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="62" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF61" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13">
-        <f>(COUNTIF(F62:AE62,"P")/(COUNTA(F62:AE62)))</f>
-        <v>0.65384615384615385</v>
+        <f>(COUNTIF(F62:AF62,"P")/(COUNTA(F62:AF62)))</f>
+        <v>0.64</v>
       </c>
       <c r="B62" s="7">
         <v>22809</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>16</v>
@@ -6777,56 +6960,54 @@
       <c r="G62" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H62" s="8" t="s">
+      <c r="H62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I62" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K62" s="8" t="s">
+      <c r="V62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X62" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="L62" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M62" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N62" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O62" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P62" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q62" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R62" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S62" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="T62" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="U62" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="V62" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="W62" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="X62" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="Y62" s="8" t="s">
         <v>15</v>
@@ -6843,38 +7024,39 @@
       <c r="AC62" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AD62" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="AD62" s="8"/>
       <c r="AE62" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="63" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF62" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13">
-        <f>(COUNTIF(F63:AE63,"P")/(COUNTA(F63:AE63)))</f>
-        <v>0.625</v>
+        <f>(COUNTIF(F63:AF63,"P")/(COUNTA(F63:AF63)))</f>
+        <v>0.62962962962962965</v>
       </c>
       <c r="B63" s="7">
         <v>22809</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>16</v>
@@ -6885,45 +7067,47 @@
       <c r="K63" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L63" s="8" t="s">
+      <c r="L63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S63" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M63" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N63" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O63" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P63" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q63" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R63" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S63" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T63" s="8"/>
-      <c r="U63" s="8" t="s">
+      <c r="T63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y63" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="V63" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="W63" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="X63" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y63" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="Z63" s="8" t="s">
         <v>15</v>
@@ -6937,15 +7121,20 @@
       <c r="AC63" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AD63" s="8"/>
+      <c r="AD63" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="AE63" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="64" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF63" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13">
-        <f>(COUNTIF(F64:AE64,"P")/(COUNTA(F64:AE64)))</f>
-        <v>0.625</v>
+        <f>(COUNTIF(F64:AF64,"P")/(COUNTA(F64:AF64)))</f>
+        <v>0.6</v>
       </c>
       <c r="B64" s="7">
         <v>22809</v>
@@ -7033,11 +7222,14 @@
       <c r="AE64" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="65" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF64" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13">
-        <f>(COUNTIF(F65:AE65,"P")/(COUNTA(F65:AE65)))</f>
-        <v>0.58333333333333337</v>
+        <f>(COUNTIF(F65:AF65,"P")/(COUNTA(F65:AF65)))</f>
+        <v>0.56000000000000005</v>
       </c>
       <c r="B65" s="7">
         <v>22809</v>
@@ -7125,11 +7317,14 @@
       <c r="AE65" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="66" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF65" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="13">
-        <f>(COUNTIF(F66:AE66,"P")/(COUNTA(F66:AE66)))</f>
-        <v>0.54166666666666663</v>
+        <f>(COUNTIF(F66:AF66,"P")/(COUNTA(F66:AF66)))</f>
+        <v>0.52</v>
       </c>
       <c r="B66" s="7">
         <v>22809</v>
@@ -7217,11 +7412,14 @@
       <c r="AE66" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="67" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF66" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="13">
-        <f>(COUNTIF(F67:AE67,"P")/(COUNTA(F67:AE67)))</f>
-        <v>0.45833333333333331</v>
+        <f>(COUNTIF(F67:AF67,"P")/(COUNTA(F67:AF67)))</f>
+        <v>0.44</v>
       </c>
       <c r="B67" s="10">
         <v>22809</v>
@@ -7309,11 +7507,14 @@
       <c r="AE67" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="68" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF67" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="13">
-        <f>(COUNTIF(F68:AE68,"P")/(COUNTA(F68:AE68)))</f>
-        <v>0.41666666666666669</v>
+        <f>(COUNTIF(F68:AF68,"P")/(COUNTA(F68:AF68)))</f>
+        <v>0.4</v>
       </c>
       <c r="B68" s="11">
         <v>22809</v>
@@ -7401,11 +7602,14 @@
       <c r="AE68" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="69" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF68" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="13">
-        <f>(COUNTIF(F69:AE69,"P")/(COUNTA(F69:AE69)))</f>
-        <v>0.375</v>
+        <f>(COUNTIF(F69:AF69,"P")/(COUNTA(F69:AF69)))</f>
+        <v>0.36</v>
       </c>
       <c r="B69" s="11">
         <v>22809</v>
@@ -7493,11 +7697,14 @@
       <c r="AE69" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="70" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF69" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13">
-        <f>(COUNTIF(F70:AE70,"P")/(COUNTA(F70:AE70)))</f>
-        <v>0.33333333333333331</v>
+        <f>(COUNTIF(F70:AF70,"P")/(COUNTA(F70:AF70)))</f>
+        <v>0.32</v>
       </c>
       <c r="B70" s="11">
         <v>22809</v>
@@ -7585,44 +7792,47 @@
       <c r="AE70" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="71" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF70" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13">
-        <f>(COUNTIF(F71:AE71,"P")/(COUNTA(F71:AE71)))</f>
-        <v>0.25</v>
+        <f>(COUNTIF(F71:AF71,"P")/(COUNTA(F71:AF71)))</f>
+        <v>0.24</v>
       </c>
       <c r="B71" s="11">
         <v>22809</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="G71" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H71" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I71" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J71" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K71" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L71" s="8" t="s">
-        <v>15</v>
+      <c r="L71" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="M71" s="8" t="s">
         <v>15</v>
@@ -7642,18 +7852,18 @@
       <c r="R71" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S71" s="6" t="s">
-        <v>16</v>
+      <c r="S71" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="T71" s="8"/>
       <c r="U71" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="V71" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="W71" s="6" t="s">
-        <v>16</v>
+      <c r="V71" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="W71" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="X71" s="8" t="s">
         <v>15</v>
@@ -7677,44 +7887,47 @@
       <c r="AE71" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="72" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF71" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13">
-        <f>(COUNTIF(F72:AE72,"P")/(COUNTA(F72:AE72)))</f>
-        <v>0.25</v>
+        <f>(COUNTIF(F72:AF72,"P")/(COUNTA(F72:AF72)))</f>
+        <v>0.24</v>
       </c>
       <c r="B72" s="11">
         <v>22809</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F72" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G72" s="6" t="s">
-        <v>16</v>
+      <c r="G72" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I72" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J72" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K72" s="8" t="s">
+      <c r="I72" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L72" s="6" t="s">
-        <v>16</v>
+      <c r="J72" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L72" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="M72" s="8" t="s">
         <v>15</v>
@@ -7734,18 +7947,18 @@
       <c r="R72" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S72" s="8" t="s">
-        <v>15</v>
+      <c r="S72" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="T72" s="8"/>
       <c r="U72" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="V72" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="W72" s="8" t="s">
-        <v>15</v>
+      <c r="V72" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W72" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="X72" s="8" t="s">
         <v>15</v>
@@ -7769,8 +7982,11 @@
       <c r="AE72" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="73" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF72" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="13"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -7802,7 +8018,7 @@
       <c r="AC73" s="5"/>
       <c r="AD73" s="7"/>
     </row>
-    <row r="74" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -7834,7 +8050,7 @@
       <c r="AC74" s="5"/>
       <c r="AD74" s="7"/>
     </row>
-    <row r="75" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -7866,7 +8082,7 @@
       <c r="AC75" s="5"/>
       <c r="AD75" s="7"/>
     </row>
-    <row r="76" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -7898,7 +8114,7 @@
       <c r="AC76" s="5"/>
       <c r="AD76" s="7"/>
     </row>
-    <row r="77" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -7930,7 +8146,7 @@
       <c r="AC77" s="5"/>
       <c r="AD77" s="7"/>
     </row>
-    <row r="78" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -7962,7 +8178,7 @@
       <c r="AC78" s="5"/>
       <c r="AD78" s="7"/>
     </row>
-    <row r="79" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -7994,7 +8210,7 @@
       <c r="AC79" s="5"/>
       <c r="AD79" s="7"/>
     </row>
-    <row r="80" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -37214,7 +37430,11 @@
     </row>
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:E977"/>
+  <autoFilter ref="A1:AF993">
+    <sortState ref="A2:AF993">
+      <sortCondition descending="1" ref="A1:A993"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
